--- a/DailyReportTemplate6.xlsx
+++ b/DailyReportTemplate6.xlsx
@@ -462,6 +462,7 @@
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1">
@@ -534,7 +535,7 @@
       </c>
       <c r="M2" s="2" t="inlineStr">
         <is>
-          <t>PAYMENT</t>
+          <t>PAYMENT TERMS</t>
         </is>
       </c>
       <c r="N2" s="2" t="inlineStr">
@@ -544,7 +545,12 @@
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>REMARKS</t>
+          <t>REMARKS/PD CHEQUES</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>CHEQUE DATES</t>
         </is>
       </c>
     </row>
@@ -560,7 +566,7 @@
       <formula1>"PMS,AGO,HFO,"</formula1>
     </dataValidation>
     <dataValidation sqref="M3:M100000" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"YES, NO"</formula1>
+      <formula1>"Debit, Credit"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
